--- a/成就.xlsx
+++ b/成就.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\BMS\脚本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6DB024-1DEF-4AB2-8326-AFA12428AAC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADD91F1-BD58-496A-98C3-163C18F11D29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{605E91DE-352A-497C-96C1-B939B6B6A1DD}"/>
   </bookViews>
@@ -4566,8 +4566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8610588D-88FE-43B2-8641-2A06F20D225E}">
   <dimension ref="A1:G917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5659,23 +5659,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>1269000</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5739,23 +5739,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>1275000</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13161,23 +13161,23 @@
         <v>621</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425">
+    <row r="425" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
         <v>567000</v>
       </c>
-      <c r="B425" t="s">
-        <v>208</v>
-      </c>
-      <c r="C425" t="s">
+      <c r="B425" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C425" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="D425" t="s">
+      <c r="D425" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E425" t="s">
+      <c r="E425" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F425" t="s">
+      <c r="F425" s="1" t="s">
         <v>621</v>
       </c>
     </row>
@@ -13221,23 +13221,23 @@
         <v>69</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428">
+    <row r="428" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
         <v>570000</v>
       </c>
-      <c r="B428" t="s">
-        <v>208</v>
-      </c>
-      <c r="C428" t="s">
+      <c r="B428" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C428" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="D428" t="s">
+      <c r="D428" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E428" t="s">
+      <c r="E428" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F428" t="s">
+      <c r="F428" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -15516,23 +15516,23 @@
         <v>785</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A542">
+    <row r="542" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="1">
         <v>853000</v>
       </c>
-      <c r="B542" t="s">
-        <v>208</v>
-      </c>
-      <c r="C542" t="s">
+      <c r="B542" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C542" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="D542" t="s">
+      <c r="D542" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E542" t="s">
+      <c r="E542" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F542" t="s">
+      <c r="F542" s="1" t="s">
         <v>785</v>
       </c>
     </row>
@@ -15756,23 +15756,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A554">
+    <row r="554" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
         <v>865000</v>
       </c>
-      <c r="B554" t="s">
-        <v>208</v>
-      </c>
-      <c r="C554" t="s">
+      <c r="B554" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C554" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="D554" t="s">
+      <c r="D554" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E554" t="s">
+      <c r="E554" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F554" t="s">
+      <c r="F554" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -21030,23 +21030,23 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A812">
+    <row r="812" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A812" s="1">
         <v>108000</v>
       </c>
-      <c r="B812" t="s">
+      <c r="B812" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="C812" t="s">
+      <c r="C812" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="D812" t="s">
+      <c r="D812" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="E812" t="s">
+      <c r="E812" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="F812" t="s">
+      <c r="F812" s="1" t="s">
         <v>1219</v>
       </c>
     </row>
@@ -22530,23 +22530,23 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A887">
+    <row r="887" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A887" s="1">
         <v>954000</v>
       </c>
-      <c r="B887" t="s">
+      <c r="B887" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="C887" t="s">
+      <c r="C887" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="D887" t="s">
+      <c r="D887" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E887" t="s">
+      <c r="E887" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F887" t="s">
+      <c r="F887" s="1" t="s">
         <v>1312</v>
       </c>
     </row>
@@ -22610,23 +22610,23 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A891">
+    <row r="891" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A891" s="1">
         <v>958000</v>
       </c>
-      <c r="B891" t="s">
+      <c r="B891" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="C891" t="s">
+      <c r="C891" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="D891" t="s">
+      <c r="D891" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E891" t="s">
+      <c r="E891" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F891" t="s">
+      <c r="F891" s="1" t="s">
         <v>1312</v>
       </c>
     </row>
@@ -22690,23 +22690,23 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A895">
+    <row r="895" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A895" s="1">
         <v>962000</v>
       </c>
-      <c r="B895" t="s">
+      <c r="B895" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="C895" t="s">
+      <c r="C895" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="D895" t="s">
+      <c r="D895" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E895" t="s">
+      <c r="E895" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F895" t="s">
+      <c r="F895" s="1" t="s">
         <v>1312</v>
       </c>
     </row>
@@ -22770,23 +22770,23 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A899">
+    <row r="899" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A899" s="1">
         <v>966000</v>
       </c>
-      <c r="B899" t="s">
+      <c r="B899" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="C899" t="s">
+      <c r="C899" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="D899" t="s">
+      <c r="D899" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E899" t="s">
+      <c r="E899" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F899" t="s">
+      <c r="F899" s="1" t="s">
         <v>1312</v>
       </c>
     </row>
@@ -22850,23 +22850,23 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A903">
+    <row r="903" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A903" s="1">
         <v>970000</v>
       </c>
-      <c r="B903" t="s">
+      <c r="B903" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="C903" t="s">
+      <c r="C903" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="D903" t="s">
+      <c r="D903" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E903" t="s">
+      <c r="E903" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F903" t="s">
+      <c r="F903" s="1" t="s">
         <v>1312</v>
       </c>
     </row>
@@ -22930,23 +22930,23 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A907">
+    <row r="907" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A907" s="1">
         <v>974000</v>
       </c>
-      <c r="B907" t="s">
+      <c r="B907" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="C907" t="s">
+      <c r="C907" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="D907" t="s">
+      <c r="D907" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="E907" t="s">
+      <c r="E907" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="F907" t="s">
+      <c r="F907" s="1" t="s">
         <v>1361</v>
       </c>
     </row>
@@ -22990,23 +22990,23 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A910">
+    <row r="910" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A910" s="1">
         <v>977000</v>
       </c>
-      <c r="B910" t="s">
+      <c r="B910" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="C910" t="s">
+      <c r="C910" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="D910" t="s">
+      <c r="D910" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="E910" t="s">
+      <c r="E910" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="F910" t="s">
+      <c r="F910" s="1" t="s">
         <v>1361</v>
       </c>
     </row>
@@ -23030,23 +23030,23 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A912">
+    <row r="912" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A912" s="1">
         <v>979000</v>
       </c>
-      <c r="B912" t="s">
+      <c r="B912" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="C912" t="s">
+      <c r="C912" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="D912" t="s">
+      <c r="D912" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="E912" t="s">
+      <c r="E912" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="F912" t="s">
+      <c r="F912" s="1" t="s">
         <v>1361</v>
       </c>
     </row>
@@ -23070,23 +23070,23 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A914">
+    <row r="914" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A914" s="1">
         <v>981000</v>
       </c>
-      <c r="B914" t="s">
+      <c r="B914" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="C914" t="s">
+      <c r="C914" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="D914" t="s">
+      <c r="D914" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="E914" t="s">
+      <c r="E914" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="F914" t="s">
+      <c r="F914" s="1" t="s">
         <v>1361</v>
       </c>
     </row>

--- a/成就.xlsx
+++ b/成就.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\BMS\脚本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADD91F1-BD58-496A-98C3-163C18F11D29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CA0A11-9CC9-4516-87A8-6A7157C342D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{605E91DE-352A-497C-96C1-B939B6B6A1DD}"/>
   </bookViews>
@@ -4566,8 +4566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8610588D-88FE-43B2-8641-2A06F20D225E}">
   <dimension ref="A1:G917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD59"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6379,540 +6379,540 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>1293000</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>1294000</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>1295000</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>1296000</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="95" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>1302000</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>1303000</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G96" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="G96" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>1304000</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G97" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="G97" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>1305000</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G98" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="G98" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>1306000</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G99" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="G99" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>1307000</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G100" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="G100" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>1308000</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G101" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="G101" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>1309000</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G102" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="G102" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>1309001</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G103" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="G103" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>1309002</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G104" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="G104" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>1309003</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G105" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="G105" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>1309004</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G106" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="G106" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>1309005</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G107" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="G107" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>1310000</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G108" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="G108" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>1310001</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G109" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="G109" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>1310002</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G110" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="G110" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>1310003</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G111" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="G111" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>1310004</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G112" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="G112" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>1310005</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G113" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="G113" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>1311000</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -23153,5 +23153,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/成就.xlsx
+++ b/成就.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\BMS\脚本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CA0A11-9CC9-4516-87A8-6A7157C342D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7985A889-379D-476D-A314-80261ABB7AD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{605E91DE-352A-497C-96C1-B939B6B6A1DD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4662" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10311" uniqueCount="1390">
   <si>
     <t xml:space="preserve"> adventure </t>
   </si>
@@ -4191,6 +4191,14 @@
   </si>
   <si>
     <t xml:space="preserve"> 摆弄&lt;B1地铁管理处&gt;宝物箱 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [血腥女王]各有特色 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [血腥女王]我们从未经历过死亡 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4215,7 +4223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4225,6 +4233,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4243,11 +4257,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4566,8 +4583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8610588D-88FE-43B2-8641-2A06F20D225E}">
   <dimension ref="A1:G917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="D265" sqref="D265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7396,403 +7413,403 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="139" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
         <v>638000</v>
       </c>
-      <c r="B139" t="s">
-        <v>208</v>
-      </c>
-      <c r="C139" t="s">
-        <v>209</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="B139" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F139" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="F139" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
         <v>639000</v>
       </c>
-      <c r="B140" t="s">
-        <v>208</v>
-      </c>
-      <c r="C140" t="s">
-        <v>209</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="B140" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F140" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="F140" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
         <v>640000</v>
       </c>
-      <c r="B141" t="s">
-        <v>208</v>
-      </c>
-      <c r="C141" t="s">
-        <v>209</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="B141" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F141" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="F141" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
         <v>641000</v>
       </c>
-      <c r="B142" t="s">
-        <v>208</v>
-      </c>
-      <c r="C142" t="s">
-        <v>209</v>
-      </c>
-      <c r="D142" t="s">
+      <c r="B142" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F142" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="F142" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
         <v>642000</v>
       </c>
-      <c r="B143" t="s">
-        <v>208</v>
-      </c>
-      <c r="C143" t="s">
-        <v>209</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="B143" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F143" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="F143" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
         <v>643000</v>
       </c>
-      <c r="B144" t="s">
-        <v>208</v>
-      </c>
-      <c r="C144" t="s">
-        <v>209</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="B144" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F144" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="F144" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
         <v>644000</v>
       </c>
-      <c r="B145" t="s">
-        <v>208</v>
-      </c>
-      <c r="C145" t="s">
-        <v>209</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="B145" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F145" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="F145" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
         <v>645000</v>
       </c>
-      <c r="B146" t="s">
-        <v>208</v>
-      </c>
-      <c r="C146" t="s">
-        <v>209</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="B146" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F146" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="F146" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
         <v>646000</v>
       </c>
-      <c r="B147" t="s">
-        <v>208</v>
-      </c>
-      <c r="C147" t="s">
-        <v>209</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="B147" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F147" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="F147" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
         <v>647000</v>
       </c>
-      <c r="B148" t="s">
-        <v>208</v>
-      </c>
-      <c r="C148" t="s">
-        <v>209</v>
-      </c>
-      <c r="D148" t="s">
+      <c r="B148" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F148" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="F148" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
         <v>648000</v>
       </c>
-      <c r="B149" t="s">
-        <v>208</v>
-      </c>
-      <c r="C149" t="s">
-        <v>209</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="B149" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F149" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="F149" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
         <v>649000</v>
       </c>
-      <c r="B150" t="s">
-        <v>208</v>
-      </c>
-      <c r="C150" t="s">
-        <v>209</v>
-      </c>
-      <c r="D150" t="s">
+      <c r="B150" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F150" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="F150" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
         <v>650000</v>
       </c>
-      <c r="B151" t="s">
-        <v>208</v>
-      </c>
-      <c r="C151" t="s">
-        <v>209</v>
-      </c>
-      <c r="D151" t="s">
+      <c r="B151" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F151" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="F151" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
         <v>651000</v>
       </c>
-      <c r="B152" t="s">
-        <v>208</v>
-      </c>
-      <c r="C152" t="s">
-        <v>209</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="B152" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F152" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="F152" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
         <v>652000</v>
       </c>
-      <c r="B153" t="s">
-        <v>208</v>
-      </c>
-      <c r="C153" t="s">
-        <v>209</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="B153" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F153" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="F153" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
         <v>653000</v>
       </c>
-      <c r="B154" t="s">
-        <v>208</v>
-      </c>
-      <c r="C154" t="s">
-        <v>209</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="B154" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F154" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="F154" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
         <v>654000</v>
       </c>
-      <c r="B155" t="s">
-        <v>208</v>
-      </c>
-      <c r="C155" t="s">
-        <v>209</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="B155" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F155" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="F155" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
         <v>655000</v>
       </c>
-      <c r="B156" t="s">
-        <v>208</v>
-      </c>
-      <c r="C156" t="s">
-        <v>209</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="B156" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F156" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="F156" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
         <v>655001</v>
       </c>
-      <c r="B157" t="s">
-        <v>208</v>
-      </c>
-      <c r="C157" t="s">
-        <v>209</v>
-      </c>
-      <c r="D157" t="s">
+      <c r="B157" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F157" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="F157" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
         <v>655002</v>
       </c>
-      <c r="B158" t="s">
-        <v>208</v>
-      </c>
-      <c r="C158" t="s">
-        <v>209</v>
-      </c>
-      <c r="D158" t="s">
+      <c r="B158" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7956,343 +7973,343 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row r="167" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
         <v>669000</v>
       </c>
-      <c r="B167" t="s">
-        <v>208</v>
-      </c>
-      <c r="C167" t="s">
-        <v>209</v>
-      </c>
-      <c r="D167" t="s">
+      <c r="B167" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F167" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="F167" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
         <v>670000</v>
       </c>
-      <c r="B168" t="s">
-        <v>208</v>
-      </c>
-      <c r="C168" t="s">
-        <v>209</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="B168" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F168" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="F168" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
         <v>671000</v>
       </c>
-      <c r="B169" t="s">
-        <v>208</v>
-      </c>
-      <c r="C169" t="s">
-        <v>209</v>
-      </c>
-      <c r="D169" t="s">
+      <c r="B169" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F169" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="F169" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
         <v>672000</v>
       </c>
-      <c r="B170" t="s">
-        <v>208</v>
-      </c>
-      <c r="C170" t="s">
-        <v>209</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="B170" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F170" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="F170" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
         <v>673000</v>
       </c>
-      <c r="B171" t="s">
-        <v>208</v>
-      </c>
-      <c r="C171" t="s">
-        <v>209</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="B171" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F171" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="F171" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
         <v>674000</v>
       </c>
-      <c r="B172" t="s">
-        <v>208</v>
-      </c>
-      <c r="C172" t="s">
-        <v>209</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="B172" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F172" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="F172" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
         <v>675000</v>
       </c>
-      <c r="B173" t="s">
-        <v>208</v>
-      </c>
-      <c r="C173" t="s">
-        <v>209</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="B173" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F173" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="F173" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
         <v>676000</v>
       </c>
-      <c r="B174" t="s">
-        <v>208</v>
-      </c>
-      <c r="C174" t="s">
-        <v>209</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="B174" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F174" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="F174" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
         <v>677000</v>
       </c>
-      <c r="B175" t="s">
-        <v>208</v>
-      </c>
-      <c r="C175" t="s">
-        <v>209</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="B175" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F175" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="F175" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
         <v>678000</v>
       </c>
-      <c r="B176" t="s">
-        <v>208</v>
-      </c>
-      <c r="C176" t="s">
-        <v>209</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="B176" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F176" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="F176" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
         <v>679000</v>
       </c>
-      <c r="B177" t="s">
-        <v>208</v>
-      </c>
-      <c r="C177" t="s">
-        <v>209</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="B177" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E177" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F177" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="F177" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
         <v>680000</v>
       </c>
-      <c r="B178" t="s">
-        <v>208</v>
-      </c>
-      <c r="C178" t="s">
-        <v>209</v>
-      </c>
-      <c r="D178" t="s">
+      <c r="B178" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F178" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="F178" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
         <v>681000</v>
       </c>
-      <c r="B179" t="s">
-        <v>208</v>
-      </c>
-      <c r="C179" t="s">
-        <v>209</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="B179" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F179" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="F179" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
         <v>682000</v>
       </c>
-      <c r="B180" t="s">
-        <v>208</v>
-      </c>
-      <c r="C180" t="s">
-        <v>209</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="B180" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F180" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="F180" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
         <v>682001</v>
       </c>
-      <c r="B181" t="s">
-        <v>208</v>
-      </c>
-      <c r="C181" t="s">
-        <v>209</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="B181" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E181" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F181" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="F181" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
         <v>682002</v>
       </c>
-      <c r="B182" t="s">
-        <v>208</v>
-      </c>
-      <c r="C182" t="s">
-        <v>209</v>
-      </c>
-      <c r="D182" t="s">
+      <c r="B182" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F182" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="F182" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
         <v>683000</v>
       </c>
-      <c r="B183" t="s">
-        <v>208</v>
-      </c>
-      <c r="C183" t="s">
-        <v>209</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="B183" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8536,1243 +8553,1243 @@
         <v>69</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196">
+    <row r="196" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
         <v>696000</v>
       </c>
-      <c r="B196" t="s">
-        <v>208</v>
-      </c>
-      <c r="C196" t="s">
-        <v>209</v>
-      </c>
-      <c r="D196" t="s">
+      <c r="B196" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F196" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="F196" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
         <v>697000</v>
       </c>
-      <c r="B197" t="s">
-        <v>208</v>
-      </c>
-      <c r="C197" t="s">
-        <v>209</v>
-      </c>
-      <c r="D197" t="s">
+      <c r="B197" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F197" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="F197" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
         <v>698000</v>
       </c>
-      <c r="B198" t="s">
-        <v>208</v>
-      </c>
-      <c r="C198" t="s">
-        <v>209</v>
-      </c>
-      <c r="D198" t="s">
+      <c r="B198" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F198" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="F198" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
         <v>699000</v>
       </c>
-      <c r="B199" t="s">
-        <v>208</v>
-      </c>
-      <c r="C199" t="s">
-        <v>209</v>
-      </c>
-      <c r="D199" t="s">
+      <c r="B199" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F199" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="F199" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
         <v>700000</v>
       </c>
-      <c r="B200" t="s">
-        <v>208</v>
-      </c>
-      <c r="C200" t="s">
-        <v>209</v>
-      </c>
-      <c r="D200" t="s">
+      <c r="B200" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201">
+    <row r="201" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
         <v>701000</v>
       </c>
-      <c r="B201" t="s">
-        <v>208</v>
-      </c>
-      <c r="C201" t="s">
-        <v>209</v>
-      </c>
-      <c r="D201" t="s">
+      <c r="B201" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202">
+    <row r="202" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
         <v>702000</v>
       </c>
-      <c r="B202" t="s">
-        <v>208</v>
-      </c>
-      <c r="C202" t="s">
-        <v>209</v>
-      </c>
-      <c r="D202" t="s">
+      <c r="B202" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E202" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203">
+    <row r="203" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
         <v>703000</v>
       </c>
-      <c r="B203" t="s">
-        <v>208</v>
-      </c>
-      <c r="C203" t="s">
-        <v>209</v>
-      </c>
-      <c r="D203" t="s">
+      <c r="B203" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F203" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204">
+    <row r="204" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
         <v>708000</v>
       </c>
-      <c r="B204" t="s">
-        <v>208</v>
-      </c>
-      <c r="C204" t="s">
-        <v>209</v>
-      </c>
-      <c r="D204" t="s">
+      <c r="B204" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F204" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="F204" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
         <v>709000</v>
       </c>
-      <c r="B205" t="s">
-        <v>208</v>
-      </c>
-      <c r="C205" t="s">
-        <v>209</v>
-      </c>
-      <c r="D205" t="s">
+      <c r="B205" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F205" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="F205" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
         <v>710000</v>
       </c>
-      <c r="B206" t="s">
-        <v>208</v>
-      </c>
-      <c r="C206" t="s">
-        <v>209</v>
-      </c>
-      <c r="D206" t="s">
+      <c r="B206" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F206" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="F206" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
         <v>711000</v>
       </c>
-      <c r="B207" t="s">
-        <v>208</v>
-      </c>
-      <c r="C207" t="s">
-        <v>209</v>
-      </c>
-      <c r="D207" t="s">
+      <c r="B207" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F207" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="F207" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
         <v>712000</v>
       </c>
-      <c r="B208" t="s">
-        <v>208</v>
-      </c>
-      <c r="C208" t="s">
-        <v>209</v>
-      </c>
-      <c r="D208" t="s">
+      <c r="B208" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E208" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F208" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="F208" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
         <v>713000</v>
       </c>
-      <c r="B209" t="s">
-        <v>208</v>
-      </c>
-      <c r="C209" t="s">
-        <v>209</v>
-      </c>
-      <c r="D209" t="s">
+      <c r="B209" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F209" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="F209" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
         <v>714000</v>
       </c>
-      <c r="B210" t="s">
-        <v>208</v>
-      </c>
-      <c r="C210" t="s">
-        <v>209</v>
-      </c>
-      <c r="D210" t="s">
+      <c r="B210" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F210" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="F210" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
         <v>715000</v>
       </c>
-      <c r="B211" t="s">
-        <v>208</v>
-      </c>
-      <c r="C211" t="s">
-        <v>209</v>
-      </c>
-      <c r="D211" t="s">
+      <c r="B211" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F211" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="F211" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
         <v>716000</v>
       </c>
-      <c r="B212" t="s">
-        <v>208</v>
-      </c>
-      <c r="C212" t="s">
-        <v>209</v>
-      </c>
-      <c r="D212" t="s">
+      <c r="B212" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F212" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="F212" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
         <v>717000</v>
       </c>
-      <c r="B213" t="s">
-        <v>208</v>
-      </c>
-      <c r="C213" t="s">
-        <v>209</v>
-      </c>
-      <c r="D213" t="s">
+      <c r="B213" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F213" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="F213" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
         <v>717001</v>
       </c>
-      <c r="B214" t="s">
-        <v>208</v>
-      </c>
-      <c r="C214" t="s">
-        <v>209</v>
-      </c>
-      <c r="D214" t="s">
+      <c r="B214" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F214" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="F214" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
         <v>717002</v>
       </c>
-      <c r="B215" t="s">
-        <v>208</v>
-      </c>
-      <c r="C215" t="s">
-        <v>209</v>
-      </c>
-      <c r="D215" t="s">
+      <c r="B215" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F215" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="F215" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
         <v>719000</v>
       </c>
-      <c r="B216" t="s">
-        <v>208</v>
-      </c>
-      <c r="C216" t="s">
-        <v>209</v>
-      </c>
-      <c r="D216" t="s">
+      <c r="B216" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F216" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="F216" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
         <v>720000</v>
       </c>
-      <c r="B217" t="s">
-        <v>208</v>
-      </c>
-      <c r="C217" t="s">
-        <v>209</v>
-      </c>
-      <c r="D217" t="s">
+      <c r="B217" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D217" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F217" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="F217" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
         <v>721000</v>
       </c>
-      <c r="B218" t="s">
-        <v>208</v>
-      </c>
-      <c r="C218" t="s">
-        <v>209</v>
-      </c>
-      <c r="D218" t="s">
+      <c r="B218" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D218" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F218" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="F218" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
         <v>722000</v>
       </c>
-      <c r="B219" t="s">
-        <v>208</v>
-      </c>
-      <c r="C219" t="s">
-        <v>209</v>
-      </c>
-      <c r="D219" t="s">
+      <c r="B219" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D219" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F219" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="F219" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
         <v>723000</v>
       </c>
-      <c r="B220" t="s">
-        <v>208</v>
-      </c>
-      <c r="C220" t="s">
-        <v>209</v>
-      </c>
-      <c r="D220" t="s">
+      <c r="B220" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F220" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="F220" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
         <v>724000</v>
       </c>
-      <c r="B221" t="s">
-        <v>208</v>
-      </c>
-      <c r="C221" t="s">
-        <v>209</v>
-      </c>
-      <c r="D221" t="s">
+      <c r="B221" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D221" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F221" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="F221" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
         <v>725000</v>
       </c>
-      <c r="B222" t="s">
-        <v>208</v>
-      </c>
-      <c r="C222" t="s">
-        <v>209</v>
-      </c>
-      <c r="D222" t="s">
+      <c r="B222" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E222" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F222" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="F222" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
         <v>726000</v>
       </c>
-      <c r="B223" t="s">
-        <v>208</v>
-      </c>
-      <c r="C223" t="s">
-        <v>209</v>
-      </c>
-      <c r="D223" t="s">
+      <c r="B223" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F223" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="F223" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
         <v>727000</v>
       </c>
-      <c r="B224" t="s">
-        <v>208</v>
-      </c>
-      <c r="C224" t="s">
-        <v>209</v>
-      </c>
-      <c r="D224" t="s">
+      <c r="B224" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D224" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E224" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F224" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="F224" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
         <v>728000</v>
       </c>
-      <c r="B225" t="s">
-        <v>208</v>
-      </c>
-      <c r="C225" t="s">
-        <v>209</v>
-      </c>
-      <c r="D225" t="s">
+      <c r="B225" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D225" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F225" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="F225" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
         <v>728001</v>
       </c>
-      <c r="B226" t="s">
-        <v>208</v>
-      </c>
-      <c r="C226" t="s">
-        <v>209</v>
-      </c>
-      <c r="D226" t="s">
+      <c r="B226" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D226" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F226" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="F226" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
         <v>728002</v>
       </c>
-      <c r="B227" t="s">
-        <v>208</v>
-      </c>
-      <c r="C227" t="s">
-        <v>209</v>
-      </c>
-      <c r="D227" t="s">
+      <c r="B227" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>728003</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D228" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E227" t="s">
-        <v>337</v>
-      </c>
-      <c r="F227" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>728003</v>
-      </c>
-      <c r="B228" t="s">
-        <v>208</v>
-      </c>
-      <c r="C228" t="s">
-        <v>209</v>
-      </c>
-      <c r="D228" t="s">
-        <v>334</v>
-      </c>
-      <c r="E228" t="s">
+      <c r="E228" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F228" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="F228" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
         <v>729000</v>
       </c>
-      <c r="B229" t="s">
-        <v>208</v>
-      </c>
-      <c r="C229" t="s">
-        <v>209</v>
-      </c>
-      <c r="D229" t="s">
+      <c r="B229" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>729001</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E230" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>729002</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>730000</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>731000</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>732000</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>733000</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>734000</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>735000</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>736000</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>737000</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>738000</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>739000</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>740000</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E242" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F229" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>729001</v>
-      </c>
-      <c r="B230" t="s">
-        <v>208</v>
-      </c>
-      <c r="C230" t="s">
-        <v>209</v>
-      </c>
-      <c r="D230" t="s">
-        <v>339</v>
-      </c>
-      <c r="E230" t="s">
+      <c r="F242" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>740001</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E243" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F230" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>729002</v>
-      </c>
-      <c r="B231" t="s">
-        <v>208</v>
-      </c>
-      <c r="C231" t="s">
-        <v>209</v>
-      </c>
-      <c r="D231" t="s">
-        <v>339</v>
-      </c>
-      <c r="E231" t="s">
+      <c r="F243" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>740002</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E244" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F231" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>730000</v>
-      </c>
-      <c r="B232" t="s">
-        <v>208</v>
-      </c>
-      <c r="C232" t="s">
-        <v>209</v>
-      </c>
-      <c r="D232" t="s">
-        <v>340</v>
-      </c>
-      <c r="E232" t="s">
-        <v>341</v>
-      </c>
-      <c r="F232" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>731000</v>
-      </c>
-      <c r="B233" t="s">
-        <v>208</v>
-      </c>
-      <c r="C233" t="s">
-        <v>209</v>
-      </c>
-      <c r="D233" t="s">
-        <v>342</v>
-      </c>
-      <c r="E233" t="s">
-        <v>343</v>
-      </c>
-      <c r="F233" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>732000</v>
-      </c>
-      <c r="B234" t="s">
-        <v>208</v>
-      </c>
-      <c r="C234" t="s">
-        <v>209</v>
-      </c>
-      <c r="D234" t="s">
-        <v>344</v>
-      </c>
-      <c r="E234" t="s">
-        <v>345</v>
-      </c>
-      <c r="F234" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>733000</v>
-      </c>
-      <c r="B235" t="s">
-        <v>208</v>
-      </c>
-      <c r="C235" t="s">
-        <v>209</v>
-      </c>
-      <c r="D235" t="s">
-        <v>346</v>
-      </c>
-      <c r="E235" t="s">
-        <v>347</v>
-      </c>
-      <c r="F235" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>734000</v>
-      </c>
-      <c r="B236" t="s">
-        <v>208</v>
-      </c>
-      <c r="C236" t="s">
-        <v>209</v>
-      </c>
-      <c r="D236" t="s">
+      <c r="F244" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>741000</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>743000</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>744000</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>745000</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>746000</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D249" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E249" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F236" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>735000</v>
-      </c>
-      <c r="B237" t="s">
-        <v>208</v>
-      </c>
-      <c r="C237" t="s">
-        <v>209</v>
-      </c>
-      <c r="D237" t="s">
-        <v>348</v>
-      </c>
-      <c r="E237" t="s">
-        <v>349</v>
-      </c>
-      <c r="F237" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>736000</v>
-      </c>
-      <c r="B238" t="s">
-        <v>208</v>
-      </c>
-      <c r="C238" t="s">
-        <v>209</v>
-      </c>
-      <c r="D238" t="s">
-        <v>350</v>
-      </c>
-      <c r="E238" t="s">
-        <v>351</v>
-      </c>
-      <c r="F238" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>737000</v>
-      </c>
-      <c r="B239" t="s">
-        <v>208</v>
-      </c>
-      <c r="C239" t="s">
-        <v>209</v>
-      </c>
-      <c r="D239" t="s">
-        <v>352</v>
-      </c>
-      <c r="E239" t="s">
-        <v>353</v>
-      </c>
-      <c r="F239" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>738000</v>
-      </c>
-      <c r="B240" t="s">
-        <v>208</v>
-      </c>
-      <c r="C240" t="s">
-        <v>209</v>
-      </c>
-      <c r="D240" t="s">
+      <c r="F249" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>747000</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>748000</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>749000</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>750000</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E253" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F240" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>739000</v>
-      </c>
-      <c r="B241" t="s">
-        <v>208</v>
-      </c>
-      <c r="C241" t="s">
-        <v>209</v>
-      </c>
-      <c r="D241" t="s">
-        <v>354</v>
-      </c>
-      <c r="E241" t="s">
-        <v>355</v>
-      </c>
-      <c r="F241" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>740000</v>
-      </c>
-      <c r="B242" t="s">
-        <v>208</v>
-      </c>
-      <c r="C242" t="s">
-        <v>209</v>
-      </c>
-      <c r="D242" t="s">
-        <v>356</v>
-      </c>
-      <c r="E242" t="s">
-        <v>237</v>
-      </c>
-      <c r="F242" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>740001</v>
-      </c>
-      <c r="B243" t="s">
-        <v>208</v>
-      </c>
-      <c r="C243" t="s">
-        <v>209</v>
-      </c>
-      <c r="D243" t="s">
-        <v>356</v>
-      </c>
-      <c r="E243" t="s">
-        <v>238</v>
-      </c>
-      <c r="F243" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>740002</v>
-      </c>
-      <c r="B244" t="s">
-        <v>208</v>
-      </c>
-      <c r="C244" t="s">
-        <v>209</v>
-      </c>
-      <c r="D244" t="s">
-        <v>356</v>
-      </c>
-      <c r="E244" t="s">
-        <v>239</v>
-      </c>
-      <c r="F244" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>741000</v>
-      </c>
-      <c r="B245" t="s">
-        <v>208</v>
-      </c>
-      <c r="C245" t="s">
-        <v>209</v>
-      </c>
-      <c r="D245" t="s">
-        <v>357</v>
-      </c>
-      <c r="E245" t="s">
-        <v>358</v>
-      </c>
-      <c r="F245" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>743000</v>
-      </c>
-      <c r="B246" t="s">
-        <v>208</v>
-      </c>
-      <c r="C246" t="s">
-        <v>209</v>
-      </c>
-      <c r="D246" t="s">
-        <v>359</v>
-      </c>
-      <c r="E246" t="s">
-        <v>360</v>
-      </c>
-      <c r="F246" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>744000</v>
-      </c>
-      <c r="B247" t="s">
-        <v>208</v>
-      </c>
-      <c r="C247" t="s">
-        <v>209</v>
-      </c>
-      <c r="D247" t="s">
-        <v>361</v>
-      </c>
-      <c r="E247" t="s">
-        <v>362</v>
-      </c>
-      <c r="F247" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>745000</v>
-      </c>
-      <c r="B248" t="s">
-        <v>208</v>
-      </c>
-      <c r="C248" t="s">
-        <v>209</v>
-      </c>
-      <c r="D248" t="s">
-        <v>363</v>
-      </c>
-      <c r="E248" t="s">
-        <v>364</v>
-      </c>
-      <c r="F248" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>746000</v>
-      </c>
-      <c r="B249" t="s">
-        <v>208</v>
-      </c>
-      <c r="C249" t="s">
-        <v>209</v>
-      </c>
-      <c r="D249" t="s">
+      <c r="F253" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>751000</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>752000</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>753000</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>754000</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D257" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E257" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F249" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>747000</v>
-      </c>
-      <c r="B250" t="s">
-        <v>208</v>
-      </c>
-      <c r="C250" t="s">
-        <v>209</v>
-      </c>
-      <c r="D250" t="s">
-        <v>365</v>
-      </c>
-      <c r="E250" t="s">
-        <v>366</v>
-      </c>
-      <c r="F250" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>748000</v>
-      </c>
-      <c r="B251" t="s">
-        <v>208</v>
-      </c>
-      <c r="C251" t="s">
-        <v>209</v>
-      </c>
-      <c r="D251" t="s">
-        <v>367</v>
-      </c>
-      <c r="E251" t="s">
-        <v>368</v>
-      </c>
-      <c r="F251" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>749000</v>
-      </c>
-      <c r="B252" t="s">
-        <v>208</v>
-      </c>
-      <c r="C252" t="s">
-        <v>209</v>
-      </c>
-      <c r="D252" t="s">
-        <v>369</v>
-      </c>
-      <c r="E252" t="s">
-        <v>370</v>
-      </c>
-      <c r="F252" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>750000</v>
-      </c>
-      <c r="B253" t="s">
-        <v>208</v>
-      </c>
-      <c r="C253" t="s">
-        <v>209</v>
-      </c>
-      <c r="D253" t="s">
-        <v>33</v>
-      </c>
-      <c r="E253" t="s">
-        <v>33</v>
-      </c>
-      <c r="F253" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>751000</v>
-      </c>
-      <c r="B254" t="s">
-        <v>208</v>
-      </c>
-      <c r="C254" t="s">
-        <v>209</v>
-      </c>
-      <c r="D254" t="s">
-        <v>371</v>
-      </c>
-      <c r="E254" t="s">
-        <v>372</v>
-      </c>
-      <c r="F254" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>752000</v>
-      </c>
-      <c r="B255" t="s">
-        <v>208</v>
-      </c>
-      <c r="C255" t="s">
-        <v>209</v>
-      </c>
-      <c r="D255" t="s">
-        <v>373</v>
-      </c>
-      <c r="E255" t="s">
-        <v>374</v>
-      </c>
-      <c r="F255" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>753000</v>
-      </c>
-      <c r="B256" t="s">
-        <v>208</v>
-      </c>
-      <c r="C256" t="s">
-        <v>209</v>
-      </c>
-      <c r="D256" t="s">
-        <v>375</v>
-      </c>
-      <c r="E256" t="s">
-        <v>376</v>
-      </c>
-      <c r="F256" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>754000</v>
-      </c>
-      <c r="B257" t="s">
-        <v>208</v>
-      </c>
-      <c r="C257" t="s">
-        <v>209</v>
-      </c>
-      <c r="D257" t="s">
-        <v>33</v>
-      </c>
-      <c r="E257" t="s">
-        <v>33</v>
-      </c>
-      <c r="F257" t="s">
+      <c r="F257" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10016,183 +10033,183 @@
         <v>69</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270">
+    <row r="270" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
         <v>767000</v>
       </c>
-      <c r="B270" t="s">
-        <v>208</v>
-      </c>
-      <c r="C270" t="s">
-        <v>209</v>
-      </c>
-      <c r="D270" t="s">
+      <c r="B270" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D270" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E270" t="s">
+      <c r="E270" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F270" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271">
+      <c r="F270" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
         <v>768000</v>
       </c>
-      <c r="B271" t="s">
-        <v>208</v>
-      </c>
-      <c r="C271" t="s">
-        <v>209</v>
-      </c>
-      <c r="D271" t="s">
+      <c r="B271" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E271" t="s">
+      <c r="E271" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F271" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272">
+      <c r="F271" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
         <v>769000</v>
       </c>
-      <c r="B272" t="s">
-        <v>208</v>
-      </c>
-      <c r="C272" t="s">
-        <v>209</v>
-      </c>
-      <c r="D272" t="s">
+      <c r="B272" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E272" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F272" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273">
+      <c r="F272" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
         <v>770000</v>
       </c>
-      <c r="B273" t="s">
-        <v>208</v>
-      </c>
-      <c r="C273" t="s">
-        <v>209</v>
-      </c>
-      <c r="D273" t="s">
+      <c r="B273" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D273" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E273" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F273" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274">
+      <c r="F273" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
         <v>771000</v>
       </c>
-      <c r="B274" t="s">
-        <v>208</v>
-      </c>
-      <c r="C274" t="s">
-        <v>209</v>
-      </c>
-      <c r="D274" t="s">
+      <c r="B274" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D274" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="E274" t="s">
+      <c r="E274" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F274" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275">
+      <c r="F274" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
         <v>772000</v>
       </c>
-      <c r="B275" t="s">
-        <v>208</v>
-      </c>
-      <c r="C275" t="s">
-        <v>209</v>
-      </c>
-      <c r="D275" t="s">
+      <c r="B275" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D275" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E275" t="s">
+      <c r="E275" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F275" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276">
+      <c r="F275" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
         <v>773000</v>
       </c>
-      <c r="B276" t="s">
-        <v>208</v>
-      </c>
-      <c r="C276" t="s">
-        <v>209</v>
-      </c>
-      <c r="D276" t="s">
+      <c r="B276" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D276" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E276" t="s">
+      <c r="E276" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F276" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277">
+      <c r="F276" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
         <v>774000</v>
       </c>
-      <c r="B277" t="s">
-        <v>208</v>
-      </c>
-      <c r="C277" t="s">
-        <v>209</v>
-      </c>
-      <c r="D277" t="s">
+      <c r="B277" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D277" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E277" t="s">
+      <c r="E277" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F277" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278">
+      <c r="F277" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
         <v>775000</v>
       </c>
-      <c r="B278" t="s">
-        <v>208</v>
-      </c>
-      <c r="C278" t="s">
-        <v>209</v>
-      </c>
-      <c r="D278" t="s">
+      <c r="B278" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D278" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E278" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F278" t="s">
+      <c r="F278" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10536,808 +10553,808 @@
         <v>69</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296">
+    <row r="296" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
         <v>797000</v>
       </c>
-      <c r="B296" t="s">
-        <v>208</v>
-      </c>
-      <c r="C296" t="s">
-        <v>209</v>
-      </c>
-      <c r="D296" t="s">
+      <c r="B296" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D296" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E296" t="s">
+      <c r="E296" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F296" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="F296" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
         <v>798000</v>
       </c>
-      <c r="B297" t="s">
-        <v>208</v>
-      </c>
-      <c r="C297" t="s">
-        <v>209</v>
-      </c>
-      <c r="D297" t="s">
+      <c r="B297" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D297" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E297" t="s">
+      <c r="E297" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F297" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298">
+      <c r="F297" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
         <v>799000</v>
       </c>
-      <c r="B298" t="s">
-        <v>208</v>
-      </c>
-      <c r="C298" t="s">
-        <v>209</v>
-      </c>
-      <c r="D298" t="s">
+      <c r="B298" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D298" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E298" t="s">
+      <c r="E298" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F298" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299">
+      <c r="F298" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
         <v>800000</v>
       </c>
-      <c r="B299" t="s">
-        <v>208</v>
-      </c>
-      <c r="C299" t="s">
-        <v>209</v>
-      </c>
-      <c r="D299" t="s">
+      <c r="B299" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D299" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E299" t="s">
+      <c r="E299" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F299" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300">
+      <c r="F299" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
         <v>801000</v>
       </c>
-      <c r="B300" t="s">
-        <v>208</v>
-      </c>
-      <c r="C300" t="s">
-        <v>209</v>
-      </c>
-      <c r="D300" t="s">
+      <c r="B300" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D300" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="E300" t="s">
+      <c r="E300" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F300" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301">
+      <c r="F300" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="2">
         <v>802000</v>
       </c>
-      <c r="B301" t="s">
-        <v>208</v>
-      </c>
-      <c r="C301" t="s">
-        <v>209</v>
-      </c>
-      <c r="D301" t="s">
+      <c r="B301" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D301" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E301" t="s">
+      <c r="E301" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F301" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302">
+      <c r="F301" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="2">
         <v>802001</v>
       </c>
-      <c r="B302" t="s">
-        <v>208</v>
-      </c>
-      <c r="C302" t="s">
-        <v>209</v>
-      </c>
-      <c r="D302" t="s">
+      <c r="B302" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D302" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E302" t="s">
+      <c r="E302" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F302" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303">
+      <c r="F302" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="2">
         <v>802002</v>
       </c>
-      <c r="B303" t="s">
-        <v>208</v>
-      </c>
-      <c r="C303" t="s">
-        <v>209</v>
-      </c>
-      <c r="D303" t="s">
+      <c r="B303" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D303" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E303" t="s">
+      <c r="E303" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F303" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304">
+      <c r="F303" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="2">
         <v>805000</v>
       </c>
-      <c r="B304" t="s">
-        <v>208</v>
-      </c>
-      <c r="C304" t="s">
-        <v>209</v>
-      </c>
-      <c r="D304" t="s">
+      <c r="B304" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D304" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E304" t="s">
+      <c r="E304" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="F304" t="s">
+      <c r="F304" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="G304" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305">
+      <c r="G304" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="2">
         <v>806000</v>
       </c>
-      <c r="B305" t="s">
-        <v>208</v>
-      </c>
-      <c r="C305" t="s">
-        <v>209</v>
-      </c>
-      <c r="D305" t="s">
+      <c r="B305" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D305" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E305" t="s">
+      <c r="E305" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="F305" t="s">
+      <c r="F305" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="G305" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306">
+      <c r="G305" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="2">
         <v>807000</v>
       </c>
-      <c r="B306" t="s">
-        <v>208</v>
-      </c>
-      <c r="C306" t="s">
-        <v>209</v>
-      </c>
-      <c r="D306" t="s">
+      <c r="B306" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D306" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E306" t="s">
+      <c r="E306" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F306" t="s">
+      <c r="F306" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="G306" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307">
+      <c r="G306" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="2">
         <v>808000</v>
       </c>
-      <c r="B307" t="s">
-        <v>208</v>
-      </c>
-      <c r="C307" t="s">
-        <v>209</v>
-      </c>
-      <c r="D307" t="s">
+      <c r="B307" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D307" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E307" t="s">
+      <c r="E307" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F307" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308">
+      <c r="F307" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="2">
         <v>811000</v>
       </c>
-      <c r="B308" t="s">
-        <v>208</v>
-      </c>
-      <c r="C308" t="s">
-        <v>209</v>
-      </c>
-      <c r="D308" t="s">
+      <c r="B308" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D308" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="E308" t="s">
+      <c r="E308" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="F308" t="s">
+      <c r="F308" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="G308" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309">
+      <c r="G308" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="2">
         <v>812000</v>
       </c>
-      <c r="B309" t="s">
-        <v>208</v>
-      </c>
-      <c r="C309" t="s">
-        <v>209</v>
-      </c>
-      <c r="D309" t="s">
+      <c r="B309" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D309" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E309" t="s">
+      <c r="E309" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="F309" t="s">
+      <c r="F309" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="G309" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310">
+      <c r="G309" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="2">
         <v>813000</v>
       </c>
-      <c r="B310" t="s">
-        <v>208</v>
-      </c>
-      <c r="C310" t="s">
-        <v>209</v>
-      </c>
-      <c r="D310" t="s">
+      <c r="B310" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D310" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="E310" t="s">
+      <c r="E310" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="F310" t="s">
+      <c r="F310" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="G310" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311">
+      <c r="G310" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="2">
         <v>814000</v>
       </c>
-      <c r="B311" t="s">
-        <v>208</v>
-      </c>
-      <c r="C311" t="s">
-        <v>209</v>
-      </c>
-      <c r="D311" t="s">
+      <c r="B311" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D311" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E311" t="s">
+      <c r="E311" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F311" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312">
+      <c r="F311" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="2">
         <v>815000</v>
       </c>
-      <c r="B312" t="s">
-        <v>208</v>
-      </c>
-      <c r="C312" t="s">
-        <v>209</v>
-      </c>
-      <c r="D312" t="s">
+      <c r="B312" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D312" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E312" t="s">
+      <c r="E312" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="F312" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313">
+      <c r="F312" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="2">
         <v>816000</v>
       </c>
-      <c r="B313" t="s">
-        <v>208</v>
-      </c>
-      <c r="C313" t="s">
-        <v>209</v>
-      </c>
-      <c r="D313" t="s">
+      <c r="B313" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D313" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="E313" t="s">
+      <c r="E313" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F313" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314">
+      <c r="F313" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
         <v>816001</v>
       </c>
-      <c r="B314" t="s">
-        <v>208</v>
-      </c>
-      <c r="C314" t="s">
-        <v>209</v>
-      </c>
-      <c r="D314" t="s">
+      <c r="B314" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D314" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="E314" t="s">
+      <c r="E314" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F314" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315">
+      <c r="F314" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
         <v>816002</v>
       </c>
-      <c r="B315" t="s">
-        <v>208</v>
-      </c>
-      <c r="C315" t="s">
-        <v>209</v>
-      </c>
-      <c r="D315" t="s">
+      <c r="B315" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D315" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="E315" t="s">
+      <c r="E315" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F315" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316">
+      <c r="F315" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
         <v>817000</v>
       </c>
-      <c r="B316" t="s">
-        <v>208</v>
-      </c>
-      <c r="C316" t="s">
-        <v>209</v>
-      </c>
-      <c r="D316" t="s">
+      <c r="B316" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D316" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E316" t="s">
+      <c r="E316" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="F316" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317">
+      <c r="F316" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
         <v>819000</v>
       </c>
-      <c r="B317" t="s">
-        <v>208</v>
-      </c>
-      <c r="C317" t="s">
-        <v>209</v>
-      </c>
-      <c r="D317" t="s">
+      <c r="B317" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D317" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="E317" t="s">
+      <c r="E317" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="F317" t="s">
+      <c r="F317" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="G317" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318">
+      <c r="G317" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
         <v>820000</v>
       </c>
-      <c r="B318" t="s">
-        <v>208</v>
-      </c>
-      <c r="C318" t="s">
-        <v>209</v>
-      </c>
-      <c r="D318" t="s">
+      <c r="B318" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D318" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E318" t="s">
+      <c r="E318" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="F318" t="s">
+      <c r="F318" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="G318" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319">
+      <c r="G318" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="2">
         <v>821000</v>
       </c>
-      <c r="B319" t="s">
-        <v>208</v>
-      </c>
-      <c r="C319" t="s">
-        <v>209</v>
-      </c>
-      <c r="D319" t="s">
+      <c r="B319" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D319" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E319" t="s">
+      <c r="E319" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="F319" t="s">
+      <c r="F319" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G319" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320">
+      <c r="G319" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
         <v>822000</v>
       </c>
-      <c r="B320" t="s">
-        <v>208</v>
-      </c>
-      <c r="C320" t="s">
-        <v>209</v>
-      </c>
-      <c r="D320" t="s">
+      <c r="B320" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D320" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E320" t="s">
+      <c r="E320" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F320" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321">
+      <c r="F320" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
         <v>823000</v>
       </c>
-      <c r="B321" t="s">
-        <v>208</v>
-      </c>
-      <c r="C321" t="s">
-        <v>209</v>
-      </c>
-      <c r="D321" t="s">
+      <c r="B321" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D321" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E321" t="s">
+      <c r="E321" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F321" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322">
+      <c r="F321" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="2">
         <v>823001</v>
       </c>
-      <c r="B322" t="s">
-        <v>208</v>
-      </c>
-      <c r="C322" t="s">
-        <v>209</v>
-      </c>
-      <c r="D322" t="s">
+      <c r="B322" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D322" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E322" t="s">
+      <c r="E322" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F322" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323">
+      <c r="F322" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="2">
         <v>823002</v>
       </c>
-      <c r="B323" t="s">
-        <v>208</v>
-      </c>
-      <c r="C323" t="s">
-        <v>209</v>
-      </c>
-      <c r="D323" t="s">
+      <c r="B323" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D323" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E323" t="s">
+      <c r="E323" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F323" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324">
+      <c r="F323" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
         <v>824000</v>
       </c>
-      <c r="B324" t="s">
-        <v>208</v>
-      </c>
-      <c r="C324" t="s">
-        <v>209</v>
-      </c>
-      <c r="D324" t="s">
+      <c r="B324" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D324" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="E324" t="s">
+      <c r="E324" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="F324" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325">
+      <c r="F324" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="2">
         <v>825000</v>
       </c>
-      <c r="B325" t="s">
-        <v>208</v>
-      </c>
-      <c r="C325" t="s">
-        <v>209</v>
-      </c>
-      <c r="D325" t="s">
+      <c r="B325" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D325" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="E325" t="s">
+      <c r="E325" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F325" t="s">
+      <c r="F325" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="G325" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326">
+      <c r="G325" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="2">
         <v>826000</v>
       </c>
-      <c r="B326" t="s">
-        <v>208</v>
-      </c>
-      <c r="C326" t="s">
-        <v>209</v>
-      </c>
-      <c r="D326" t="s">
+      <c r="B326" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D326" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="E326" t="s">
+      <c r="E326" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F326" t="s">
+      <c r="F326" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="G326" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327">
+      <c r="G326" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="2">
         <v>827000</v>
       </c>
-      <c r="B327" t="s">
-        <v>208</v>
-      </c>
-      <c r="C327" t="s">
-        <v>209</v>
-      </c>
-      <c r="D327" t="s">
+      <c r="B327" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D327" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="E327" t="s">
+      <c r="E327" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="F327" t="s">
+      <c r="F327" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="G327" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328">
+      <c r="G327" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="2">
         <v>828000</v>
       </c>
-      <c r="B328" t="s">
-        <v>208</v>
-      </c>
-      <c r="C328" t="s">
-        <v>209</v>
-      </c>
-      <c r="D328" t="s">
+      <c r="B328" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D328" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E328" t="s">
+      <c r="E328" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F328" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329">
+      <c r="F328" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
         <v>831000</v>
       </c>
-      <c r="B329" t="s">
-        <v>208</v>
-      </c>
-      <c r="C329" t="s">
-        <v>209</v>
-      </c>
-      <c r="D329" t="s">
+      <c r="B329" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D329" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E329" t="s">
+      <c r="E329" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="F329" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330">
+      <c r="F329" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="2">
         <v>832000</v>
       </c>
-      <c r="B330" t="s">
-        <v>208</v>
-      </c>
-      <c r="C330" t="s">
-        <v>209</v>
-      </c>
-      <c r="D330" t="s">
+      <c r="B330" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D330" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="E330" t="s">
+      <c r="E330" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="F330" t="s">
+      <c r="F330" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="G330" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331">
+      <c r="G330" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="2">
         <v>833000</v>
       </c>
-      <c r="B331" t="s">
-        <v>208</v>
-      </c>
-      <c r="C331" t="s">
-        <v>209</v>
-      </c>
-      <c r="D331" t="s">
+      <c r="B331" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D331" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="E331" t="s">
+      <c r="E331" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="F331" t="s">
+      <c r="F331" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="G331" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332">
+      <c r="G331" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
         <v>834000</v>
       </c>
-      <c r="B332" t="s">
-        <v>208</v>
-      </c>
-      <c r="C332" t="s">
-        <v>209</v>
-      </c>
-      <c r="D332" t="s">
+      <c r="B332" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D332" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="E332" t="s">
+      <c r="E332" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="F332" t="s">
+      <c r="F332" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="G332" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333">
+      <c r="G332" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
         <v>835000</v>
       </c>
-      <c r="B333" t="s">
-        <v>208</v>
-      </c>
-      <c r="C333" t="s">
-        <v>209</v>
-      </c>
-      <c r="D333" t="s">
+      <c r="B333" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D333" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E333" t="s">
+      <c r="E333" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F333" t="s">
+      <c r="F333" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -15156,23 +15173,23 @@
         <v>69</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A524">
+    <row r="524" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A524" s="2">
         <v>3015000</v>
       </c>
-      <c r="B524" t="s">
-        <v>208</v>
-      </c>
-      <c r="C524" t="s">
+      <c r="B524" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C524" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D524" t="s">
+      <c r="D524" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="E524" t="s">
+      <c r="E524" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="F524" t="s">
+      <c r="F524" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -15256,103 +15273,103 @@
         <v>785</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A529">
+    <row r="529" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A529" s="2">
         <v>840000</v>
       </c>
-      <c r="B529" t="s">
-        <v>208</v>
-      </c>
-      <c r="C529" t="s">
+      <c r="B529" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C529" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="D529" t="s">
+      <c r="D529" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E529" t="s">
+      <c r="E529" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F529" t="s">
+      <c r="F529" s="2" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="530" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="1">
+    <row r="530" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="2">
         <v>841000</v>
       </c>
-      <c r="B530" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C530" s="1" t="s">
+      <c r="B530" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C530" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="D530" s="1" t="s">
+      <c r="D530" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="E530" s="1" t="s">
+      <c r="E530" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="F530" s="1" t="s">
+      <c r="F530" s="2" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="531" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="1">
+    <row r="531" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="2">
         <v>842000</v>
       </c>
-      <c r="B531" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C531" s="1" t="s">
+      <c r="B531" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C531" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="D531" s="1" t="s">
+      <c r="D531" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="E531" s="1" t="s">
+      <c r="E531" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="F531" s="1" t="s">
+      <c r="F531" s="2" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="532" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="1">
+    <row r="532" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="2">
         <v>843000</v>
       </c>
-      <c r="B532" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C532" s="1" t="s">
+      <c r="B532" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C532" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="D532" s="1" t="s">
+      <c r="D532" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="E532" s="1" t="s">
+      <c r="E532" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="F532" s="1" t="s">
+      <c r="F532" s="2" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A533">
+    <row r="533" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="2">
         <v>844000</v>
       </c>
-      <c r="B533" t="s">
-        <v>208</v>
-      </c>
-      <c r="C533" t="s">
+      <c r="B533" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C533" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="D533" t="s">
+      <c r="D533" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E533" t="s">
+      <c r="E533" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F533" t="s">
+      <c r="F533" s="2" t="s">
         <v>785</v>
       </c>
     </row>
@@ -15416,23 +15433,23 @@
         <v>798</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A537">
+    <row r="537" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="2">
         <v>848000</v>
       </c>
-      <c r="B537" t="s">
-        <v>208</v>
-      </c>
-      <c r="C537" t="s">
+      <c r="B537" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C537" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="D537" t="s">
+      <c r="D537" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E537" t="s">
+      <c r="E537" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F537" t="s">
+      <c r="F537" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -21071,82 +21088,82 @@
       </c>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A814">
+      <c r="A814" s="2">
         <v>914000</v>
       </c>
-      <c r="B814" t="s">
+      <c r="B814" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="C814" t="s">
+      <c r="C814" s="2" t="s">
         <v>1239</v>
       </c>
-      <c r="D814" t="s">
+      <c r="D814" s="2" t="s">
         <v>1242</v>
       </c>
-      <c r="E814" t="s">
+      <c r="E814" s="2" t="s">
         <v>1243</v>
       </c>
-      <c r="F814" t="s">
+      <c r="F814" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A815">
+      <c r="A815" s="2">
         <v>915000</v>
       </c>
-      <c r="B815" t="s">
+      <c r="B815" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="C815" t="s">
+      <c r="C815" s="2" t="s">
         <v>1239</v>
       </c>
-      <c r="D815" t="s">
+      <c r="D815" s="2" t="s">
         <v>1244</v>
       </c>
-      <c r="E815" t="s">
+      <c r="E815" s="2" t="s">
         <v>1245</v>
       </c>
-      <c r="F815" t="s">
+      <c r="F815" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A816">
+      <c r="A816" s="2">
         <v>916000</v>
       </c>
-      <c r="B816" t="s">
+      <c r="B816" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="C816" t="s">
+      <c r="C816" s="2" t="s">
         <v>1239</v>
       </c>
-      <c r="D816" t="s">
+      <c r="D816" s="2" t="s">
         <v>1246</v>
       </c>
-      <c r="E816" t="s">
+      <c r="E816" s="2" t="s">
         <v>1247</v>
       </c>
-      <c r="F816" t="s">
+      <c r="F816" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A817">
+      <c r="A817" s="2">
         <v>917000</v>
       </c>
-      <c r="B817" t="s">
+      <c r="B817" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="C817" t="s">
+      <c r="C817" s="2" t="s">
         <v>1239</v>
       </c>
-      <c r="D817" t="s">
+      <c r="D817" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E817" t="s">
+      <c r="E817" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F817" t="s">
+      <c r="F817" s="2" t="s">
         <v>69</v>
       </c>
     </row>
